--- a/data/trans_orig/P19D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A99CD4F5-8354-4F3E-95E7-0298A7B9E5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFE89BCD-3F4B-4FE1-8E57-B72C533E84E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0891598F-9541-48BE-B9A8-EA6C7BB72CC9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{898BAAD2-F398-4B7B-BCB9-93C59A74C332}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="615">
   <si>
     <t>Población según el tipo de dentista que consultó en 2007 (Tasa respuesta: 78,14%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>88,93%</t>
   </si>
   <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>91,86%</t>
   </si>
   <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>90,54%</t>
   </si>
   <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
   </si>
   <si>
     <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
@@ -125,7 +125,7 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>7,95%</t>
+    <t>7,26%</t>
   </si>
   <si>
     <t>2,69%</t>
@@ -134,1771 +134,1756 @@
     <t>0,86%</t>
   </si>
   <si>
-    <t>7,26%</t>
+    <t>7,46%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2015 (Tasa respuesta: 79,98%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2015 (Tasa respuesta: 79,98%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>1,16%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>16,0%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>5,03%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
+    <t>10,3%</t>
   </si>
 </sst>
 </file>
@@ -2310,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AC0061-EBB3-4F52-AD48-EA4950264A91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F184D37F-D4FF-4421-9E50-B8CD15997498}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2969,7 +2954,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2978,13 +2963,13 @@
         <v>1528</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +2984,13 @@
         <v>658428</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" s="7">
         <v>693</v>
@@ -3014,13 +2999,13 @@
         <v>736169</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M15" s="7">
         <v>1300</v>
@@ -3029,13 +3014,13 @@
         <v>1394598</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,10 +3038,10 @@
         <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3065,13 +3050,13 @@
         <v>13478</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3080,13 +3065,13 @@
         <v>28849</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3086,13 @@
         <v>48329</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -3116,13 +3101,13 @@
         <v>53050</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -3131,13 +3116,13 @@
         <v>101379</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3178,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3211,7 +3196,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3220,13 +3205,13 @@
         <v>1074</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3235,13 +3220,13 @@
         <v>1074</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3241,13 @@
         <v>487240</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>540</v>
@@ -3271,13 +3256,13 @@
         <v>530112</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1003</v>
@@ -3286,13 +3271,13 @@
         <v>1017352</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3292,13 @@
         <v>9955</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -3322,13 +3307,13 @@
         <v>15089</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -3337,13 +3322,13 @@
         <v>25044</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3343,13 @@
         <v>47894</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -3373,13 +3358,13 @@
         <v>38334</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -3388,13 +3373,13 @@
         <v>86228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,7 +3435,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3462,13 +3447,13 @@
         <v>2635</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -3477,13 +3462,13 @@
         <v>2242</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -3492,13 +3477,13 @@
         <v>4877</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3498,13 @@
         <v>637586</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>704</v>
@@ -3528,13 +3513,13 @@
         <v>731479</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>1380</v>
@@ -3543,13 +3528,13 @@
         <v>1369065</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3549,13 @@
         <v>23812</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -3579,13 +3564,13 @@
         <v>15713</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>38</v>
@@ -3594,13 +3579,13 @@
         <v>39526</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3600,13 @@
         <v>47997</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H27" s="7">
         <v>61</v>
@@ -3630,13 +3615,13 @@
         <v>64563</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M27" s="7">
         <v>114</v>
@@ -3645,13 +3630,13 @@
         <v>112560</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,10 +3704,10 @@
         <v>2635</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>79</v>
@@ -3734,13 +3719,13 @@
         <v>6796</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -3749,13 +3734,13 @@
         <v>9431</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3755,13 @@
         <v>2221956</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H30" s="7">
         <v>2447</v>
@@ -3785,13 +3770,13 @@
         <v>2500664</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M30" s="7">
         <v>4627</v>
@@ -3800,13 +3785,13 @@
         <v>4722620</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,10 +3890,10 @@
         <v>199</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,7 +3949,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3985,7 +3970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B513F901-9B9E-42F0-927A-2457E9D38704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714FD0CC-9854-4D16-95BC-7AF2AEDAF720}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4002,7 +3987,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4115,7 +4100,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4130,7 +4115,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4145,7 +4130,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4145,13 @@
         <v>85631</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>72</v>
@@ -4175,13 +4160,13 @@
         <v>82331</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>160</v>
@@ -4190,13 +4175,13 @@
         <v>167962</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,7 +4202,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4232,7 +4217,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4247,7 +4232,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4247,13 @@
         <v>14262</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4277,13 +4262,13 @@
         <v>11487</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -4292,13 +4277,13 @@
         <v>25749</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,7 +4357,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4387,7 +4372,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4417,13 +4402,13 @@
         <v>413158</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H10" s="7">
         <v>437</v>
@@ -4432,13 +4417,13 @@
         <v>465675</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>831</v>
@@ -4447,13 +4432,13 @@
         <v>878833</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4453,13 @@
         <v>12657</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -4483,13 +4468,13 @@
         <v>10402</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -4498,13 +4483,13 @@
         <v>23058</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4504,13 @@
         <v>78388</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -4534,13 +4519,13 @@
         <v>64836</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M12" s="7">
         <v>132</v>
@@ -4549,13 +4534,13 @@
         <v>143224</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,7 +4614,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4659,7 +4644,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,13 +4659,13 @@
         <v>714358</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H15" s="7">
         <v>712</v>
@@ -4689,13 +4674,13 @@
         <v>778619</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M15" s="7">
         <v>1375</v>
@@ -4704,13 +4689,13 @@
         <v>1492977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4710,13 @@
         <v>23724</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4740,13 +4725,13 @@
         <v>13709</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -4755,13 +4740,13 @@
         <v>37432</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4761,13 @@
         <v>126641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -4791,13 +4776,13 @@
         <v>108617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>213</v>
@@ -4806,13 +4791,13 @@
         <v>235258</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,7 +4853,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4880,13 +4865,13 @@
         <v>2300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4901,7 +4886,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4910,13 +4895,13 @@
         <v>2300</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4916,13 @@
         <v>511583</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>536</v>
@@ -4946,13 +4931,13 @@
         <v>589088</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>1006</v>
@@ -4961,13 +4946,13 @@
         <v>1100671</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +4967,13 @@
         <v>29564</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -4997,13 +4982,13 @@
         <v>22282</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>296</v>
+        <v>68</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M21" s="7">
         <v>40</v>
@@ -5012,13 +4997,13 @@
         <v>51847</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5018,13 @@
         <v>91598</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -5048,13 +5033,13 @@
         <v>68066</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>148</v>
@@ -5063,13 +5048,13 @@
         <v>159664</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,7 +5110,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5143,7 +5128,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5158,7 +5143,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5173,7 +5158,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5173,13 @@
         <v>688732</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H25" s="7">
         <v>763</v>
@@ -5203,13 +5188,13 @@
         <v>801984</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M25" s="7">
         <v>1425</v>
@@ -5218,13 +5203,13 @@
         <v>1490716</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5224,13 @@
         <v>31449</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>29</v>
+        <v>315</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -5254,13 +5239,13 @@
         <v>34530</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M26" s="7">
         <v>61</v>
@@ -5269,13 +5254,13 @@
         <v>65978</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>326</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5275,13 @@
         <v>83476</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H27" s="7">
         <v>87</v>
@@ -5305,13 +5290,13 @@
         <v>91856</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="M27" s="7">
         <v>168</v>
@@ -5320,13 +5305,13 @@
         <v>175332</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5379,13 @@
         <v>2300</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>335</v>
+        <v>174</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>140</v>
+        <v>331</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5415,7 +5400,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5424,13 +5409,13 @@
         <v>2300</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>337</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,13 +5430,13 @@
         <v>2413461</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H30" s="7">
         <v>2520</v>
@@ -5460,13 +5445,13 @@
         <v>2717697</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M30" s="7">
         <v>4797</v>
@@ -5475,13 +5460,13 @@
         <v>5131158</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5481,13 @@
         <v>97393</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>345</v>
+        <v>13</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H31" s="7">
         <v>70</v>
@@ -5511,13 +5496,13 @@
         <v>80922</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M31" s="7">
         <v>154</v>
@@ -5526,13 +5511,13 @@
         <v>178315</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5532,13 @@
         <v>394365</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H32" s="7">
         <v>321</v>
@@ -5562,13 +5547,13 @@
         <v>344862</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M32" s="7">
         <v>687</v>
@@ -5577,13 +5562,13 @@
         <v>739227</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>356</v>
+        <v>266</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,7 +5624,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5660,7 +5645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFDD435-2A4D-4690-B555-E52E636C7245}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73D2B11-BD6E-4A07-86B6-9B8E23B8CE68}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5677,7 +5662,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5790,7 +5775,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5805,7 +5790,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5820,7 +5805,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5820,13 @@
         <v>91349</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H5" s="7">
         <v>90</v>
@@ -5850,13 +5835,13 @@
         <v>88776</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M5" s="7">
         <v>178</v>
@@ -5865,13 +5850,13 @@
         <v>180125</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>366</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,7 +5877,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5901,13 +5886,13 @@
         <v>1197</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5916,13 +5901,13 @@
         <v>1197</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5922,13 @@
         <v>7426</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5952,13 +5937,13 @@
         <v>11028</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>378</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5967,13 +5952,13 @@
         <v>18454</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,7 +6032,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6062,7 +6047,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6077,7 +6062,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6077,13 @@
         <v>375257</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H10" s="7">
         <v>403</v>
@@ -6107,13 +6092,13 @@
         <v>404288</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M10" s="7">
         <v>766</v>
@@ -6122,13 +6107,13 @@
         <v>779546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>391</v>
+        <v>284</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6128,13 @@
         <v>2528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -6158,13 +6143,13 @@
         <v>2050</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>396</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -6173,13 +6158,13 @@
         <v>4578</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,13 +6179,13 @@
         <v>48433</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>163</v>
+        <v>395</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -6209,13 +6194,13 @@
         <v>37023</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>400</v>
+        <v>195</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>402</v>
+        <v>245</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -6224,13 +6209,13 @@
         <v>85456</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>216</v>
+        <v>399</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>44</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6283,13 @@
         <v>2057</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6313,13 +6298,13 @@
         <v>1107</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -6331,10 +6316,10 @@
         <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>33</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6334,13 @@
         <v>727622</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>407</v>
+        <v>177</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>341</v>
+        <v>405</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H15" s="7">
         <v>730</v>
@@ -6364,13 +6349,13 @@
         <v>774265</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>411</v>
+        <v>87</v>
       </c>
       <c r="M15" s="7">
         <v>1404</v>
@@ -6379,13 +6364,13 @@
         <v>1501887</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,13 +6385,13 @@
         <v>19836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>412</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6415,13 +6400,13 @@
         <v>16916</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>418</v>
+        <v>275</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -6430,13 +6415,13 @@
         <v>36752</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>421</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,13 +6436,13 @@
         <v>66831</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -6466,13 +6451,13 @@
         <v>74086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>425</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M17" s="7">
         <v>131</v>
@@ -6481,13 +6466,13 @@
         <v>140917</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,7 +6528,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6561,7 +6546,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6576,7 +6561,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>174</v>
+        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6591,7 +6576,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,13 +6591,13 @@
         <v>496011</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7">
         <v>493</v>
@@ -6621,13 +6606,13 @@
         <v>516845</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>430</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>945</v>
@@ -6636,13 +6621,13 @@
         <v>1012856</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,13 +6642,13 @@
         <v>5255</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>439</v>
+        <v>234</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>128</v>
+        <v>434</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -6672,13 +6657,13 @@
         <v>18989</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>323</v>
+        <v>435</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -6687,13 +6672,13 @@
         <v>24244</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>375</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,13 +6693,13 @@
         <v>48047</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -6723,13 +6708,13 @@
         <v>42633</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -6738,13 +6723,13 @@
         <v>90680</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>445</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>448</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6800,7 +6785,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6812,7 +6797,7 @@
         <v>992</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
@@ -6833,7 +6818,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6842,13 +6827,13 @@
         <v>992</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,13 +6848,13 @@
         <v>671005</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H25" s="7">
         <v>687</v>
@@ -6878,13 +6863,13 @@
         <v>738309</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>1354</v>
@@ -6893,13 +6878,13 @@
         <v>1409314</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6899,13 @@
         <v>24384</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H26" s="7">
         <v>43</v>
@@ -6929,13 +6914,13 @@
         <v>49241</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>66</v>
@@ -6944,13 +6929,13 @@
         <v>73624</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>347</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,13 +6950,13 @@
         <v>75333</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>246</v>
+        <v>463</v>
       </c>
       <c r="H27" s="7">
         <v>83</v>
@@ -6980,13 +6965,13 @@
         <v>89292</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M27" s="7">
         <v>159</v>
@@ -6995,13 +6980,13 @@
         <v>164625</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7054,13 @@
         <v>3049</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -7084,13 +7069,13 @@
         <v>1107</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -7099,10 +7084,10 @@
         <v>4155</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>335</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>80</v>
@@ -7120,13 +7105,13 @@
         <v>2361244</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H30" s="7">
         <v>2403</v>
@@ -7135,13 +7120,13 @@
         <v>2522483</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>288</v>
+        <v>473</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M30" s="7">
         <v>4647</v>
@@ -7150,13 +7135,13 @@
         <v>4883727</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,13 +7156,13 @@
         <v>52003</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H31" s="7">
         <v>81</v>
@@ -7186,13 +7171,13 @@
         <v>88392</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>485</v>
+        <v>192</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M31" s="7">
         <v>128</v>
@@ -7201,13 +7186,13 @@
         <v>140395</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>488</v>
+        <v>434</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>489</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,13 +7207,13 @@
         <v>246071</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H32" s="7">
         <v>241</v>
@@ -7237,13 +7222,13 @@
         <v>254062</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>492</v>
+        <v>219</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>330</v>
+        <v>486</v>
       </c>
       <c r="M32" s="7">
         <v>475</v>
@@ -7252,13 +7237,13 @@
         <v>500132</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>195</v>
+        <v>488</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,7 +7299,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -7335,7 +7320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555E724A-6799-4A73-A309-F96CFFDFDC9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9879CBBE-EF94-4BF4-BAC3-035C5404F128}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7352,7 +7337,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7465,7 +7450,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7480,7 +7465,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7495,7 +7480,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>499</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,13 +7495,13 @@
         <v>92611</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -7525,13 +7510,13 @@
         <v>118812</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="M5" s="7">
         <v>326</v>
@@ -7540,13 +7525,13 @@
         <v>211423</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7561,13 +7546,13 @@
         <v>913</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>95</v>
+        <v>502</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -7576,13 +7561,13 @@
         <v>1717</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>241</v>
+        <v>504</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -7591,13 +7576,13 @@
         <v>2630</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>513</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7612,13 +7597,13 @@
         <v>6950</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -7627,13 +7612,13 @@
         <v>7757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>520</v>
+        <v>322</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -7642,13 +7627,13 @@
         <v>14707</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7722,7 +7707,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7737,7 +7722,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7752,7 +7737,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7767,13 +7752,13 @@
         <v>475353</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>359</v>
       </c>
       <c r="H10" s="7">
         <v>897</v>
@@ -7782,13 +7767,13 @@
         <v>535139</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="M10" s="7">
         <v>1420</v>
@@ -7797,13 +7782,13 @@
         <v>1010493</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7818,13 +7803,13 @@
         <v>1699</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>526</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -7833,13 +7818,13 @@
         <v>3883</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>528</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>534</v>
+        <v>393</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -7848,13 +7833,13 @@
         <v>5583</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>529</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>252</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,13 +7854,13 @@
         <v>51990</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>536</v>
+        <v>355</v>
       </c>
       <c r="H12" s="7">
         <v>54</v>
@@ -7884,13 +7869,13 @@
         <v>29804</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>297</v>
+        <v>532</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="M12" s="7">
         <v>113</v>
@@ -7899,13 +7884,13 @@
         <v>81794</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>462</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7979,7 +7964,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7994,7 +7979,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8009,7 +7994,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>335</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8024,13 +8009,13 @@
         <v>869612</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H15" s="7">
         <v>1386</v>
@@ -8039,13 +8024,13 @@
         <v>977749</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>546</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>2221</v>
@@ -8054,13 +8039,13 @@
         <v>1847361</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8075,13 +8060,13 @@
         <v>15104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>550</v>
+        <v>49</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>143</v>
+        <v>545</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>551</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -8090,13 +8075,13 @@
         <v>8552</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>552</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>546</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>482</v>
+        <v>49</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -8105,13 +8090,13 @@
         <v>23657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,13 +8111,13 @@
         <v>130787</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H17" s="7">
         <v>94</v>
@@ -8144,10 +8129,10 @@
         <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M17" s="7">
         <v>182</v>
@@ -8156,13 +8141,13 @@
         <v>190795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>553</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8218,7 +8203,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8266,7 +8251,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8281,13 +8266,13 @@
         <v>638281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>561</v>
+        <v>451</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H20" s="7">
         <v>960</v>
@@ -8296,13 +8281,13 @@
         <v>811927</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>557</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M20" s="7">
         <v>1554</v>
@@ -8311,13 +8296,13 @@
         <v>1450208</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8332,13 +8317,13 @@
         <v>16270</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>281</v>
+        <v>564</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>522</v>
+        <v>565</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -8347,13 +8332,13 @@
         <v>14891</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>141</v>
+        <v>502</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -8362,13 +8347,13 @@
         <v>31161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>418</v>
+        <v>569</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>516</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,13 +8368,13 @@
         <v>54232</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -8398,13 +8383,13 @@
         <v>39237</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>576</v>
+        <v>257</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -8413,13 +8398,13 @@
         <v>93469</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8475,7 +8460,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8493,7 +8478,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8508,7 +8493,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8523,7 +8508,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>335</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8538,13 +8523,13 @@
         <v>824667</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="H25" s="7">
         <v>1386</v>
@@ -8553,13 +8538,13 @@
         <v>1020585</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>585</v>
+        <v>86</v>
       </c>
       <c r="M25" s="7">
         <v>2241</v>
@@ -8568,13 +8553,13 @@
         <v>1845252</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>387</v>
+        <v>583</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>481</v>
+        <v>584</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8589,13 +8574,13 @@
         <v>23464</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -8604,13 +8589,13 @@
         <v>12790</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>589</v>
+        <v>63</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -8619,13 +8604,13 @@
         <v>36254</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>592</v>
+        <v>93</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>593</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8640,13 +8625,13 @@
         <v>75175</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>594</v>
+        <v>483</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H27" s="7">
         <v>101</v>
@@ -8655,13 +8640,13 @@
         <v>78505</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>429</v>
+        <v>592</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>75</v>
+        <v>378</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>380</v>
+        <v>593</v>
       </c>
       <c r="M27" s="7">
         <v>183</v>
@@ -8670,13 +8655,13 @@
         <v>153680</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8750,7 +8735,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8765,7 +8750,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8780,7 +8765,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8795,13 +8780,13 @@
         <v>2900524</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>599</v>
+        <v>500</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H30" s="7">
         <v>4849</v>
@@ -8810,13 +8795,13 @@
         <v>3464213</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="M30" s="7">
         <v>7762</v>
@@ -8825,13 +8810,13 @@
         <v>6364737</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>605</v>
+        <v>384</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8849,10 +8834,10 @@
         <v>185</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>608</v>
+        <v>569</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H31" s="7">
         <v>61</v>
@@ -8861,13 +8846,13 @@
         <v>41834</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>611</v>
+        <v>124</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>421</v>
+        <v>49</v>
       </c>
       <c r="M31" s="7">
         <v>114</v>
@@ -8876,13 +8861,13 @@
         <v>99284</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>534</v>
+        <v>606</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8897,13 +8882,13 @@
         <v>319134</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>331</v>
+        <v>609</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H32" s="7">
         <v>313</v>
@@ -8912,13 +8897,13 @@
         <v>215311</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>616</v>
+        <v>101</v>
       </c>
       <c r="M32" s="7">
         <v>599</v>
@@ -8927,13 +8912,13 @@
         <v>534445</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>618</v>
+        <v>107</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8989,7 +8974,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFE89BCD-3F4B-4FE1-8E57-B72C533E84E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF8E100F-28EB-48E5-9774-D3C7D629CD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{898BAAD2-F398-4B7B-BCB9-93C59A74C332}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F5CFBAA-924B-4B8C-8B91-21CF0540DAD1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="628">
   <si>
     <t>Población según el tipo de dentista que consultó en 2007 (Tasa respuesta: 78,14%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros (especificar)</t>
@@ -95,28 +95,28 @@
     <t>88,93%</t>
   </si>
   <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>91,86%</t>
   </si>
   <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>90,54%</t>
   </si>
   <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
@@ -125,16 +125,16 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>7,26%</t>
+    <t>7,43%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>2,13%</t>
@@ -143,7 +143,7 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>5,66%</t>
+    <t>5,28%</t>
   </si>
   <si>
     <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
@@ -152,1723 +152,1762 @@
     <t>9,61%</t>
   </si>
   <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2016 (Tasa respuesta: 79,98%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>94,67%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>93,2%</t>
   </si>
   <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2015 (Tasa respuesta: 79,98%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
     <t>2,26%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
     <t>1,16%</t>
   </si>
   <si>
     <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
   </si>
   <si>
     <t>14,26%</t>
@@ -2295,7 +2334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F184D37F-D4FF-4421-9E50-B8CD15997498}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5D382B-8308-4426-90DA-462A915D30B4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2620,7 +2659,7 @@
         <v>70</v>
       </c>
       <c r="D8" s="7">
-        <v>77765</v>
+        <v>77766</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>45</v>
@@ -3071,7 +3110,7 @@
         <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3125,13 @@
         <v>48329</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -3101,13 +3140,13 @@
         <v>53050</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -3116,13 +3155,13 @@
         <v>101379</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,7 +3217,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3196,7 +3235,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3205,13 +3244,13 @@
         <v>1074</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3226,7 +3265,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3280,13 @@
         <v>487240</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>540</v>
@@ -3256,13 +3295,13 @@
         <v>530112</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1003</v>
@@ -3271,13 +3310,13 @@
         <v>1017352</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3331,13 @@
         <v>9955</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -3307,13 +3346,13 @@
         <v>15089</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -3322,13 +3361,13 @@
         <v>25044</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,13 +3382,13 @@
         <v>47894</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -3358,13 +3397,13 @@
         <v>38334</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -3373,13 +3412,13 @@
         <v>86228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,7 +3474,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3447,13 +3486,13 @@
         <v>2635</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -3462,13 +3501,13 @@
         <v>2242</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -3480,10 +3519,10 @@
         <v>143</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3537,13 @@
         <v>637586</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>704</v>
@@ -3513,13 +3552,13 @@
         <v>731479</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1380</v>
@@ -3528,13 +3567,13 @@
         <v>1369065</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3588,13 @@
         <v>23812</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -3564,13 +3603,13 @@
         <v>15713</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="M26" s="7">
         <v>38</v>
@@ -3579,13 +3618,13 @@
         <v>39526</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3639,13 @@
         <v>47997</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H27" s="7">
         <v>61</v>
@@ -3615,13 +3654,13 @@
         <v>64563</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M27" s="7">
         <v>114</v>
@@ -3630,13 +3669,13 @@
         <v>112560</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,7 +3743,7 @@
         <v>2635</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>172</v>
@@ -3725,7 +3764,7 @@
         <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -3734,7 +3773,7 @@
         <v>9431</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>174</v>
@@ -3791,7 +3830,7 @@
         <v>183</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3845,13 @@
         <v>55875</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H31" s="7">
         <v>47</v>
@@ -3821,13 +3860,13 @@
         <v>49688</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M31" s="7">
         <v>101</v>
@@ -3836,13 +3875,13 @@
         <v>105564</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3896,13 @@
         <v>176618</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H32" s="7">
         <v>179</v>
@@ -3872,13 +3911,13 @@
         <v>183788</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M32" s="7">
         <v>351</v>
@@ -3887,13 +3926,13 @@
         <v>360406</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,7 +3988,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3970,7 +4009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714FD0CC-9854-4D16-95BC-7AF2AEDAF720}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4927A36F-66D1-4CFF-9B4A-410076D20704}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3987,7 +4026,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4100,7 +4139,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4115,7 +4154,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4130,7 +4169,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4184,13 @@
         <v>85631</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>72</v>
@@ -4160,13 +4199,13 @@
         <v>82331</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>160</v>
@@ -4175,13 +4214,13 @@
         <v>167962</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,7 +4241,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4217,7 +4256,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4232,7 +4271,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4286,13 @@
         <v>14262</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4262,13 +4301,13 @@
         <v>11487</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -4277,13 +4316,13 @@
         <v>25749</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,7 +4396,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4372,7 +4411,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4402,13 +4441,13 @@
         <v>413158</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
         <v>437</v>
@@ -4417,13 +4456,13 @@
         <v>465675</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>831</v>
@@ -4432,13 +4471,13 @@
         <v>878833</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4492,13 @@
         <v>12657</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -4468,13 +4507,13 @@
         <v>10402</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -4483,13 +4522,13 @@
         <v>23058</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4543,13 @@
         <v>78388</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -4519,13 +4558,13 @@
         <v>64836</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M12" s="7">
         <v>132</v>
@@ -4534,13 +4573,13 @@
         <v>143224</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,7 +4653,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4644,7 +4683,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4698,13 @@
         <v>714358</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H15" s="7">
         <v>712</v>
@@ -4674,13 +4713,13 @@
         <v>778619</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M15" s="7">
         <v>1375</v>
@@ -4689,13 +4728,13 @@
         <v>1492977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4749,13 @@
         <v>23724</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4725,13 +4764,13 @@
         <v>13709</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -4740,13 +4779,13 @@
         <v>37432</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4800,13 @@
         <v>126641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -4776,13 +4815,13 @@
         <v>108617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>213</v>
@@ -4791,13 +4830,13 @@
         <v>235258</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,7 +4892,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4865,13 +4904,13 @@
         <v>2300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4886,7 +4925,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4895,13 +4934,13 @@
         <v>2300</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4955,13 @@
         <v>511583</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H20" s="7">
         <v>536</v>
@@ -4931,13 +4970,13 @@
         <v>589088</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M20" s="7">
         <v>1006</v>
@@ -4946,13 +4985,13 @@
         <v>1100671</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +5006,13 @@
         <v>29564</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>290</v>
+        <v>163</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -4982,13 +5021,13 @@
         <v>22282</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M21" s="7">
         <v>40</v>
@@ -4997,13 +5036,13 @@
         <v>51847</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5057,13 @@
         <v>91598</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -5033,13 +5072,13 @@
         <v>68066</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M22" s="7">
         <v>148</v>
@@ -5048,13 +5087,13 @@
         <v>159664</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,7 +5149,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5143,7 +5182,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5158,7 +5197,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,13 +5212,13 @@
         <v>688732</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H25" s="7">
         <v>763</v>
@@ -5188,13 +5227,13 @@
         <v>801984</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>1425</v>
@@ -5203,13 +5242,13 @@
         <v>1490716</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5263,13 @@
         <v>31449</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -5239,13 +5278,13 @@
         <v>34530</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>61</v>
@@ -5254,13 +5293,13 @@
         <v>65978</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>105</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5314,13 @@
         <v>83476</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H27" s="7">
         <v>87</v>
@@ -5290,13 +5329,13 @@
         <v>91856</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M27" s="7">
         <v>168</v>
@@ -5305,13 +5344,13 @@
         <v>175332</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,7 +5424,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5400,7 +5439,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5415,7 +5454,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5469,13 @@
         <v>2413461</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H30" s="7">
         <v>2520</v>
@@ -5445,13 +5484,13 @@
         <v>2717697</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M30" s="7">
         <v>4797</v>
@@ -5460,13 +5499,13 @@
         <v>5131158</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5520,13 @@
         <v>97393</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H31" s="7">
         <v>70</v>
@@ -5496,13 +5535,13 @@
         <v>80922</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>344</v>
+        <v>265</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>346</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M31" s="7">
         <v>154</v>
@@ -5511,13 +5550,13 @@
         <v>178315</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>192</v>
+        <v>349</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5571,13 @@
         <v>394365</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H32" s="7">
         <v>321</v>
@@ -5547,13 +5586,13 @@
         <v>344862</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M32" s="7">
         <v>687</v>
@@ -5562,13 +5601,13 @@
         <v>739227</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>266</v>
+        <v>357</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,7 +5663,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5645,7 +5684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73D2B11-BD6E-4A07-86B6-9B8E23B8CE68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359B3E01-7E69-4450-85B6-32F5EF08791D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5662,7 +5701,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5775,7 +5814,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5790,7 +5829,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5805,7 +5844,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5859,13 @@
         <v>91349</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>360</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H5" s="7">
         <v>90</v>
@@ -5835,13 +5874,13 @@
         <v>88776</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M5" s="7">
         <v>178</v>
@@ -5850,13 +5889,13 @@
         <v>180125</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,7 +5916,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5886,13 +5925,13 @@
         <v>1197</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>368</v>
+        <v>278</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5901,13 +5940,13 @@
         <v>1197</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5961,13 @@
         <v>7426</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5937,13 +5976,13 @@
         <v>11028</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -5952,13 +5991,13 @@
         <v>18454</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>379</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,7 +6071,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6047,7 +6086,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6062,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6116,13 @@
         <v>375257</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H10" s="7">
         <v>403</v>
@@ -6092,13 +6131,13 @@
         <v>404288</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M10" s="7">
         <v>766</v>
@@ -6107,13 +6146,13 @@
         <v>779546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6167,13 @@
         <v>2528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -6143,13 +6182,13 @@
         <v>2050</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>395</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -6158,13 +6197,13 @@
         <v>4578</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>397</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,13 +6218,13 @@
         <v>48433</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -6194,13 +6233,13 @@
         <v>37023</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>195</v>
+        <v>402</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>245</v>
+        <v>404</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -6209,13 +6248,13 @@
         <v>85456</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,7 +6328,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6298,13 +6337,13 @@
         <v>1107</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>145</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -6316,10 +6355,10 @@
         <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,13 +6373,13 @@
         <v>727622</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>177</v>
+        <v>411</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H15" s="7">
         <v>730</v>
@@ -6349,13 +6388,13 @@
         <v>774265</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>408</v>
+        <v>147</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>87</v>
+        <v>415</v>
       </c>
       <c r="M15" s="7">
         <v>1404</v>
@@ -6364,13 +6403,13 @@
         <v>1501887</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,13 +6424,13 @@
         <v>19836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>413</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>414</v>
+        <v>127</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6400,13 +6439,13 @@
         <v>16916</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -6415,13 +6454,13 @@
         <v>36752</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>260</v>
+        <v>423</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,13 +6475,13 @@
         <v>66831</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -6451,13 +6490,13 @@
         <v>74086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>428</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>131</v>
@@ -6466,13 +6505,13 @@
         <v>140917</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>425</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,7 +6567,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6546,7 +6585,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6561,7 +6600,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6576,7 +6615,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,13 +6630,13 @@
         <v>496011</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>493</v>
@@ -6606,13 +6645,13 @@
         <v>516845</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>945</v>
@@ -6621,13 +6660,13 @@
         <v>1012856</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>178</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6681,13 @@
         <v>5255</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -6657,13 +6696,13 @@
         <v>18989</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>68</v>
+        <v>394</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -6672,13 +6711,13 @@
         <v>24244</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>444</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,13 +6732,13 @@
         <v>48047</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>438</v>
+        <v>331</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -6708,13 +6747,13 @@
         <v>42633</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -6723,13 +6762,13 @@
         <v>90680</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>445</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>269</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,7 +6824,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6797,13 +6836,13 @@
         <v>992</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>63</v>
+        <v>453</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6818,7 +6857,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6827,13 +6866,13 @@
         <v>992</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>274</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,13 +6887,13 @@
         <v>671005</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>53</v>
       </c>
       <c r="H25" s="7">
         <v>687</v>
@@ -6863,13 +6902,13 @@
         <v>738309</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="M25" s="7">
         <v>1354</v>
@@ -6878,13 +6917,13 @@
         <v>1409314</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,13 +6938,13 @@
         <v>24384</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>289</v>
+        <v>463</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H26" s="7">
         <v>43</v>
@@ -6914,13 +6953,13 @@
         <v>49241</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>467</v>
       </c>
       <c r="M26" s="7">
         <v>66</v>
@@ -6929,13 +6968,13 @@
         <v>73624</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>347</v>
+        <v>469</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>460</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,13 +6989,13 @@
         <v>75333</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="H27" s="7">
         <v>83</v>
@@ -6965,13 +7004,13 @@
         <v>89292</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="M27" s="7">
         <v>159</v>
@@ -6980,13 +7019,13 @@
         <v>164625</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>106</v>
+        <v>477</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,13 +7093,13 @@
         <v>3049</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -7075,7 +7114,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -7087,10 +7126,10 @@
         <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,13 +7144,13 @@
         <v>2361244</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="H30" s="7">
         <v>2403</v>
@@ -7120,13 +7159,13 @@
         <v>2522483</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="M30" s="7">
         <v>4647</v>
@@ -7135,13 +7174,13 @@
         <v>4883727</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,13 +7195,13 @@
         <v>52003</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>479</v>
+        <v>265</v>
       </c>
       <c r="H31" s="7">
         <v>81</v>
@@ -7171,13 +7210,13 @@
         <v>88392</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>192</v>
+        <v>490</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="M31" s="7">
         <v>128</v>
@@ -7186,13 +7225,13 @@
         <v>140395</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>416</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7207,13 +7246,13 @@
         <v>246071</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="H32" s="7">
         <v>241</v>
@@ -7222,13 +7261,13 @@
         <v>254062</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>219</v>
+        <v>497</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>486</v>
+        <v>168</v>
       </c>
       <c r="M32" s="7">
         <v>475</v>
@@ -7237,13 +7276,13 @@
         <v>500132</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7299,7 +7338,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -7320,7 +7359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9879CBBE-EF94-4BF4-BAC3-035C5404F128}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB8ED4F-25C8-4226-99F6-97E933095387}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7337,7 +7376,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7450,7 +7489,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7465,7 +7504,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7480,7 +7519,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,13 +7534,13 @@
         <v>92611</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -7510,13 +7549,13 @@
         <v>118812</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="M5" s="7">
         <v>326</v>
@@ -7525,13 +7564,13 @@
         <v>211423</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,13 +7585,13 @@
         <v>913</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -7561,13 +7600,13 @@
         <v>1717</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>505</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>506</v>
+        <v>162</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -7576,13 +7615,13 @@
         <v>2630</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>507</v>
+        <v>159</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7597,13 +7636,13 @@
         <v>6950</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -7612,13 +7651,13 @@
         <v>7757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -7627,13 +7666,13 @@
         <v>14707</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>514</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,7 +7746,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>505</v>
+        <v>175</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7722,7 +7761,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7737,7 +7776,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7752,13 +7791,13 @@
         <v>475353</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>897</v>
@@ -7767,13 +7806,13 @@
         <v>535139</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="M10" s="7">
         <v>1420</v>
@@ -7782,13 +7821,13 @@
         <v>1010493</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7809,7 +7848,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -7818,13 +7857,13 @@
         <v>3883</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>528</v>
+        <v>454</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>393</v>
+        <v>189</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -7833,13 +7872,13 @@
         <v>5583</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>529</v>
+        <v>410</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7854,13 +7893,13 @@
         <v>51990</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>355</v>
+        <v>538</v>
       </c>
       <c r="H12" s="7">
         <v>54</v>
@@ -7869,13 +7908,13 @@
         <v>29804</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="M12" s="7">
         <v>113</v>
@@ -7884,13 +7923,13 @@
         <v>81794</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>542</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7964,7 +8003,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7979,7 +8018,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8009,13 +8048,13 @@
         <v>869612</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="H15" s="7">
         <v>1386</v>
@@ -8024,13 +8063,13 @@
         <v>977749</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>550</v>
       </c>
       <c r="M15" s="7">
         <v>2221</v>
@@ -8039,13 +8078,13 @@
         <v>1847361</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8060,13 +8099,13 @@
         <v>15104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>49</v>
+        <v>488</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>555</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -8075,13 +8114,13 @@
         <v>8552</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>261</v>
+        <v>556</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>49</v>
+        <v>488</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -8090,10 +8129,10 @@
         <v>23657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>507</v>
+        <v>159</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>144</v>
+        <v>558</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -8111,13 +8150,13 @@
         <v>130787</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="H17" s="7">
         <v>94</v>
@@ -8126,13 +8165,13 @@
         <v>60008</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>562</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="M17" s="7">
         <v>182</v>
@@ -8141,13 +8180,13 @@
         <v>190795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,7 +8242,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8251,7 +8290,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8266,13 +8305,13 @@
         <v>638281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="H20" s="7">
         <v>960</v>
@@ -8281,13 +8320,13 @@
         <v>811927</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="M20" s="7">
         <v>1554</v>
@@ -8296,13 +8335,13 @@
         <v>1450208</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8317,13 +8356,13 @@
         <v>16270</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -8332,13 +8371,13 @@
         <v>14891</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>566</v>
+        <v>186</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -8347,13 +8386,13 @@
         <v>31161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>568</v>
+        <v>68</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8368,13 +8407,13 @@
         <v>54232</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>200</v>
+        <v>582</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -8383,13 +8422,13 @@
         <v>39237</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -8398,13 +8437,13 @@
         <v>93469</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8460,7 +8499,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8478,7 +8517,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8493,7 +8532,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8523,13 +8562,13 @@
         <v>824667</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="H25" s="7">
         <v>1386</v>
@@ -8538,13 +8577,13 @@
         <v>1020585</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>86</v>
+        <v>595</v>
       </c>
       <c r="M25" s="7">
         <v>2241</v>
@@ -8553,13 +8592,13 @@
         <v>1845252</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>585</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8574,13 +8613,13 @@
         <v>23464</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -8589,13 +8628,13 @@
         <v>12790</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>507</v>
+        <v>159</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -8604,13 +8643,13 @@
         <v>36254</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>93</v>
+        <v>602</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8625,13 +8664,13 @@
         <v>75175</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>483</v>
+        <v>603</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>590</v>
+        <v>201</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="H27" s="7">
         <v>101</v>
@@ -8640,13 +8679,13 @@
         <v>78505</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>378</v>
+        <v>562</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="M27" s="7">
         <v>183</v>
@@ -8655,13 +8694,13 @@
         <v>153680</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8735,7 +8774,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8765,7 +8804,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8780,13 +8819,13 @@
         <v>2900524</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="H30" s="7">
         <v>4849</v>
@@ -8795,13 +8834,13 @@
         <v>3464213</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="M30" s="7">
         <v>7762</v>
@@ -8810,13 +8849,13 @@
         <v>6364737</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>384</v>
+        <v>615</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8831,13 +8870,13 @@
         <v>57450</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>185</v>
+        <v>618</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="H31" s="7">
         <v>61</v>
@@ -8846,13 +8885,13 @@
         <v>41834</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>49</v>
+        <v>488</v>
       </c>
       <c r="M31" s="7">
         <v>114</v>
@@ -8861,13 +8900,13 @@
         <v>99284</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>606</v>
+        <v>444</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8882,13 +8921,13 @@
         <v>319134</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>609</v>
+        <v>498</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="H32" s="7">
         <v>313</v>
@@ -8897,13 +8936,13 @@
         <v>215311</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M32" s="7">
         <v>599</v>
@@ -8912,13 +8951,13 @@
         <v>534445</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8974,7 +9013,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF8E100F-28EB-48E5-9774-D3C7D629CD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7316EB60-51E7-4BA1-AF38-1790BC4F20DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F5CFBAA-924B-4B8C-8B91-21CF0540DAD1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{227998F8-FE88-462E-AABA-C332AFB4A50A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="620">
   <si>
     <t>Población según el tipo de dentista que consultó en 2007 (Tasa respuesta: 78,14%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>88,93%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>91,86%</t>
   </si>
   <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>90,54%</t>
   </si>
   <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>De una sociedad Médica (p.ej: Sanitas, Adeslas, Asisa)</t>
@@ -125,1804 +125,1780 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>7,43%</t>
+    <t>7,95%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>De la Seguridad Social/S.A.S. (Servicio Andaluz de Salud)</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2016 (Tasa respuesta: 79,98%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2012 (Tasa respuesta: 86,68%)</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2016 (Tasa respuesta: 79,98%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de dentista que consultó en 2023 (Tasa respuesta: 96,93%)</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>14,26%</t>
+    <t>16,0%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>5,03%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>10,3%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
   </si>
 </sst>
 </file>
@@ -2334,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5D382B-8308-4426-90DA-462A915D30B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F07829-07D9-4939-8C15-E3A31265ECE7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2659,7 +2635,7 @@
         <v>70</v>
       </c>
       <c r="D8" s="7">
-        <v>77766</v>
+        <v>77765</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>45</v>
@@ -2993,7 +2969,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3002,13 +2978,13 @@
         <v>1528</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +2999,13 @@
         <v>658428</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H15" s="7">
         <v>693</v>
@@ -3038,13 +3014,13 @@
         <v>736169</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M15" s="7">
         <v>1300</v>
@@ -3053,13 +3029,13 @@
         <v>1394598</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,10 +3053,10 @@
         <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3089,13 +3065,13 @@
         <v>13478</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3104,13 +3080,13 @@
         <v>28849</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3101,13 @@
         <v>48329</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -3140,10 +3116,10 @@
         <v>53050</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>104</v>
@@ -3259,7 +3235,7 @@
         <v>1074</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
@@ -3364,10 +3340,10 @@
         <v>128</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3373,13 @@
         <v>38334</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -3492,7 +3468,7 @@
         <v>139</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -3501,13 +3477,13 @@
         <v>2242</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -3516,13 +3492,13 @@
         <v>4877</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3513,13 @@
         <v>637586</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>704</v>
@@ -3552,13 +3528,13 @@
         <v>731479</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1380</v>
@@ -3567,13 +3543,13 @@
         <v>1369065</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3564,13 @@
         <v>23812</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -3603,13 +3579,13 @@
         <v>15713</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>38</v>
@@ -3618,13 +3594,13 @@
         <v>39526</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3615,13 @@
         <v>47997</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H27" s="7">
         <v>61</v>
@@ -3654,13 +3630,13 @@
         <v>64563</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M27" s="7">
         <v>114</v>
@@ -3669,13 +3645,13 @@
         <v>112560</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,10 +3719,10 @@
         <v>2635</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>79</v>
@@ -3758,13 +3734,13 @@
         <v>6796</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -3776,10 +3752,10 @@
         <v>110</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3770,13 @@
         <v>2221956</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H30" s="7">
         <v>2447</v>
@@ -3809,13 +3785,13 @@
         <v>2500664</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M30" s="7">
         <v>4627</v>
@@ -3824,13 +3800,13 @@
         <v>4722620</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3821,13 @@
         <v>55875</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H31" s="7">
         <v>47</v>
@@ -3860,13 +3836,13 @@
         <v>49688</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M31" s="7">
         <v>101</v>
@@ -3875,13 +3851,13 @@
         <v>105564</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,13 +3872,13 @@
         <v>176618</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H32" s="7">
         <v>179</v>
@@ -3911,13 +3887,13 @@
         <v>183788</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M32" s="7">
         <v>351</v>
@@ -3926,13 +3902,13 @@
         <v>360406</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,7 +3985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4927A36F-66D1-4CFF-9B4A-410076D20704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F7B2C-8CF0-4A3D-82FE-492368F191F0}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4220,7 +4196,7 @@
         <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4262,13 @@
         <v>14262</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -4301,10 +4277,10 @@
         <v>11487</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>219</v>
@@ -4528,7 +4504,7 @@
         <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4519,13 @@
         <v>78388</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -4558,13 +4534,13 @@
         <v>64836</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M12" s="7">
         <v>132</v>
@@ -4573,13 +4549,13 @@
         <v>143224</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,7 +4629,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4698,13 +4674,13 @@
         <v>714358</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H15" s="7">
         <v>712</v>
@@ -4713,13 +4689,13 @@
         <v>778619</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M15" s="7">
         <v>1375</v>
@@ -4728,13 +4704,13 @@
         <v>1492977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4725,13 @@
         <v>23724</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4764,13 +4740,13 @@
         <v>13709</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -4779,13 +4755,13 @@
         <v>37432</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4776,13 @@
         <v>126641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -4815,13 +4791,13 @@
         <v>108617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M17" s="7">
         <v>213</v>
@@ -4830,13 +4806,13 @@
         <v>235258</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4880,13 @@
         <v>2300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4925,7 +4901,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4934,13 +4910,13 @@
         <v>2300</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4931,13 @@
         <v>511583</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H20" s="7">
         <v>536</v>
@@ -4970,13 +4946,13 @@
         <v>589088</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>1006</v>
@@ -4985,13 +4961,13 @@
         <v>1100671</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +4982,13 @@
         <v>29564</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>163</v>
+        <v>295</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -5021,13 +4997,13 @@
         <v>22282</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M21" s="7">
         <v>40</v>
@@ -5036,13 +5012,13 @@
         <v>51847</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5033,13 @@
         <v>91598</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -5072,13 +5048,13 @@
         <v>68066</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M22" s="7">
         <v>148</v>
@@ -5087,13 +5063,13 @@
         <v>159664</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,7 +5143,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5182,7 +5158,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5212,13 +5188,13 @@
         <v>688732</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H25" s="7">
         <v>763</v>
@@ -5227,13 +5203,13 @@
         <v>801984</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M25" s="7">
         <v>1425</v>
@@ -5242,13 +5218,13 @@
         <v>1490716</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,13 +5239,13 @@
         <v>31449</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>317</v>
+        <v>29</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -5278,13 +5254,13 @@
         <v>34530</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>61</v>
@@ -5293,13 +5269,13 @@
         <v>65978</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5290,13 @@
         <v>83476</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H27" s="7">
         <v>87</v>
@@ -5329,13 +5305,13 @@
         <v>91856</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="M27" s="7">
         <v>168</v>
@@ -5344,13 +5320,13 @@
         <v>175332</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5394,13 @@
         <v>2300</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>174</v>
+        <v>335</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>333</v>
+        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5439,7 +5415,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5448,13 +5424,13 @@
         <v>2300</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>139</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5445,13 @@
         <v>2413461</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H30" s="7">
         <v>2520</v>
@@ -5484,13 +5460,13 @@
         <v>2717697</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>339</v>
+        <v>227</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M30" s="7">
         <v>4797</v>
@@ -5499,13 +5475,13 @@
         <v>5131158</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5520,13 +5496,13 @@
         <v>97393</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>344</v>
+        <v>73</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>29</v>
+        <v>345</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H31" s="7">
         <v>70</v>
@@ -5535,13 +5511,13 @@
         <v>80922</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>265</v>
+        <v>347</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>346</v>
+        <v>190</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M31" s="7">
         <v>154</v>
@@ -5550,10 +5526,10 @@
         <v>178315</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>349</v>
+        <v>267</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>350</v>
@@ -5589,10 +5565,10 @@
         <v>354</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M32" s="7">
         <v>687</v>
@@ -5601,13 +5577,13 @@
         <v>739227</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,7 +5660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359B3E01-7E69-4450-85B6-32F5EF08791D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357EB98C-60DC-4402-AEFB-6502FCA2F5AA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5701,7 +5677,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5814,7 +5790,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5829,7 +5805,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>362</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5844,7 +5820,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5835,13 @@
         <v>91349</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H5" s="7">
         <v>90</v>
@@ -5874,13 +5850,13 @@
         <v>88776</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M5" s="7">
         <v>178</v>
@@ -5889,13 +5865,13 @@
         <v>180125</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,7 +5892,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5925,13 +5901,13 @@
         <v>1197</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>278</v>
+        <v>370</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5940,13 +5916,13 @@
         <v>1197</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5937,13 @@
         <v>7426</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -5976,10 +5952,10 @@
         <v>11028</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>379</v>
@@ -5997,7 +5973,7 @@
         <v>381</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>214</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,7 +6047,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6086,7 +6062,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6101,7 +6077,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6092,13 @@
         <v>375257</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H10" s="7">
         <v>403</v>
@@ -6131,13 +6107,13 @@
         <v>404288</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M10" s="7">
         <v>766</v>
@@ -6146,13 +6122,13 @@
         <v>779546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,13 +6143,13 @@
         <v>2528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -6182,13 +6158,13 @@
         <v>2050</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -6197,13 +6173,13 @@
         <v>4578</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>396</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,13 +6194,13 @@
         <v>48433</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -6233,13 +6209,13 @@
         <v>37023</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -6248,13 +6224,13 @@
         <v>85456</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>406</v>
+        <v>216</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>407</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,13 +6298,13 @@
         <v>2057</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6337,13 +6313,13 @@
         <v>1107</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -6355,10 +6331,10 @@
         <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,13 +6349,13 @@
         <v>727622</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>412</v>
+        <v>341</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H15" s="7">
         <v>730</v>
@@ -6388,13 +6364,13 @@
         <v>774265</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>147</v>
+        <v>410</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M15" s="7">
         <v>1404</v>
@@ -6403,13 +6379,13 @@
         <v>1501887</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,13 +6400,13 @@
         <v>19836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>419</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>415</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>127</v>
+        <v>416</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -6439,13 +6415,13 @@
         <v>16916</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>159</v>
+        <v>418</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -6454,13 +6430,13 @@
         <v>36752</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>424</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6451,13 @@
         <v>66831</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -6490,13 +6466,13 @@
         <v>74086</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>426</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>427</v>
       </c>
       <c r="M17" s="7">
         <v>131</v>
@@ -6505,13 +6481,13 @@
         <v>140917</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,7 +6576,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>431</v>
+        <v>174</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6630,13 +6606,13 @@
         <v>496011</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>493</v>
@@ -6645,13 +6621,13 @@
         <v>516845</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>945</v>
@@ -6660,13 +6636,13 @@
         <v>1012856</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6681,13 +6657,13 @@
         <v>5255</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>238</v>
+        <v>439</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>224</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>441</v>
+        <v>128</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -6696,13 +6672,13 @@
         <v>18989</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>394</v>
+        <v>155</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>442</v>
+        <v>323</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -6711,13 +6687,13 @@
         <v>24244</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>444</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>445</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,13 +6708,13 @@
         <v>48047</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>331</v>
+        <v>441</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -6747,13 +6723,13 @@
         <v>42633</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -6762,13 +6738,13 @@
         <v>90680</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,13 +6812,13 @@
         <v>992</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>453</v>
+        <v>63</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6857,7 +6833,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6866,13 +6842,13 @@
         <v>992</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>454</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,13 +6863,13 @@
         <v>671005</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>53</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
         <v>687</v>
@@ -6902,13 +6878,13 @@
         <v>738309</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M25" s="7">
         <v>1354</v>
@@ -6917,13 +6893,13 @@
         <v>1409314</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,13 +6914,13 @@
         <v>24384</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>463</v>
+        <v>62</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H26" s="7">
         <v>43</v>
@@ -6953,13 +6929,13 @@
         <v>49241</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>76</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>66</v>
@@ -6968,13 +6944,13 @@
         <v>73624</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>381</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6989,13 +6965,13 @@
         <v>75333</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>472</v>
+        <v>246</v>
       </c>
       <c r="H27" s="7">
         <v>83</v>
@@ -7004,13 +6980,13 @@
         <v>89292</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M27" s="7">
         <v>159</v>
@@ -7019,13 +6995,13 @@
         <v>164625</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>477</v>
+        <v>333</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,13 +7069,13 @@
         <v>3049</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -7108,7 +7084,7 @@
         <v>1107</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
@@ -7123,13 +7099,13 @@
         <v>4155</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>335</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>280</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7144,13 +7120,13 @@
         <v>2361244</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="H30" s="7">
         <v>2403</v>
@@ -7159,13 +7135,13 @@
         <v>2522483</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>483</v>
+        <v>288</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="M30" s="7">
         <v>4647</v>
@@ -7174,13 +7150,13 @@
         <v>4883727</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,13 +7171,13 @@
         <v>52003</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>265</v>
+        <v>483</v>
       </c>
       <c r="H31" s="7">
         <v>81</v>
@@ -7210,13 +7186,13 @@
         <v>88392</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M31" s="7">
         <v>128</v>
@@ -7225,13 +7201,13 @@
         <v>140395</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,10 +7225,10 @@
         <v>380</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H32" s="7">
         <v>241</v>
@@ -7261,13 +7237,13 @@
         <v>254062</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>168</v>
+        <v>330</v>
       </c>
       <c r="M32" s="7">
         <v>475</v>
@@ -7276,13 +7252,13 @@
         <v>500132</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>500</v>
+        <v>195</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7359,7 +7335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB8ED4F-25C8-4226-99F6-97E933095387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CBF36F-C266-4EB1-825A-AE8B88E247D2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7376,7 +7352,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7489,7 +7465,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7504,7 +7480,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7519,7 +7495,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7510,13 @@
         <v>92611</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H5" s="7">
         <v>220</v>
@@ -7549,13 +7525,13 @@
         <v>118812</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M5" s="7">
         <v>326</v>
@@ -7564,13 +7540,13 @@
         <v>211423</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,13 +7561,13 @@
         <v>913</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>514</v>
+        <v>95</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -7600,13 +7576,13 @@
         <v>1717</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>516</v>
+        <v>241</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>175</v>
+        <v>510</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>162</v>
+        <v>511</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -7615,13 +7591,13 @@
         <v>2630</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>159</v>
+        <v>512</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>224</v>
+        <v>513</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7612,13 @@
         <v>6950</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -7651,13 +7627,13 @@
         <v>7757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>324</v>
+        <v>520</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -7666,13 +7642,13 @@
         <v>14707</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>521</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7746,7 +7722,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>175</v>
+        <v>510</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7761,7 +7737,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7791,13 +7767,13 @@
         <v>475353</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>527</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>897</v>
@@ -7806,13 +7782,13 @@
         <v>535139</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="M10" s="7">
         <v>1420</v>
@@ -7821,13 +7797,13 @@
         <v>1010493</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7842,13 +7818,13 @@
         <v>1699</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>534</v>
+        <v>361</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -7857,13 +7833,13 @@
         <v>3883</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>454</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>189</v>
+        <v>534</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -7872,13 +7848,13 @@
         <v>5583</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>410</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>536</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,13 +7869,13 @@
         <v>51990</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H12" s="7">
         <v>54</v>
@@ -7908,13 +7884,13 @@
         <v>29804</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>539</v>
+        <v>297</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="M12" s="7">
         <v>113</v>
@@ -7923,13 +7899,13 @@
         <v>81794</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8003,7 +7979,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8018,7 +7994,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -8033,7 +8009,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,13 +8024,13 @@
         <v>869612</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H15" s="7">
         <v>1386</v>
@@ -8063,13 +8039,13 @@
         <v>977749</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M15" s="7">
         <v>2221</v>
@@ -8078,13 +8054,13 @@
         <v>1847361</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,13 +8075,13 @@
         <v>15104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>554</v>
+        <v>143</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -8114,13 +8090,13 @@
         <v>8552</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>557</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -8129,13 +8105,13 @@
         <v>23657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>512</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>558</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8150,13 +8126,13 @@
         <v>130787</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H17" s="7">
         <v>94</v>
@@ -8165,13 +8141,13 @@
         <v>60008</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>562</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="M17" s="7">
         <v>182</v>
@@ -8180,13 +8156,13 @@
         <v>190795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>566</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8290,7 +8266,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8305,13 +8281,13 @@
         <v>638281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>561</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="H20" s="7">
         <v>960</v>
@@ -8320,13 +8296,13 @@
         <v>811927</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>570</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="M20" s="7">
         <v>1554</v>
@@ -8335,13 +8311,13 @@
         <v>1450208</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8356,13 +8332,13 @@
         <v>16270</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>577</v>
+        <v>281</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>578</v>
+        <v>522</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -8371,13 +8347,13 @@
         <v>14891</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>186</v>
+        <v>569</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>514</v>
+        <v>141</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="M21" s="7">
         <v>34</v>
@@ -8386,13 +8362,13 @@
         <v>31161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>68</v>
+        <v>571</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>580</v>
+        <v>418</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>581</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8407,13 +8383,13 @@
         <v>54232</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -8422,13 +8398,13 @@
         <v>39237</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>576</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -8437,13 +8413,13 @@
         <v>93469</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>589</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,7 +8493,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8532,7 +8508,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8547,7 +8523,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8562,13 +8538,13 @@
         <v>824667</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="H25" s="7">
         <v>1386</v>
@@ -8577,13 +8553,13 @@
         <v>1020585</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="M25" s="7">
         <v>2241</v>
@@ -8592,13 +8568,13 @@
         <v>1845252</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>596</v>
+        <v>387</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>597</v>
+        <v>481</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8613,13 +8589,13 @@
         <v>23464</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -8628,13 +8604,13 @@
         <v>12790</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>159</v>
+        <v>512</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>63</v>
+        <v>589</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -8643,13 +8619,13 @@
         <v>36254</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>492</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8664,13 +8640,13 @@
         <v>75175</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>201</v>
+        <v>595</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="H27" s="7">
         <v>101</v>
@@ -8679,13 +8655,13 @@
         <v>78505</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>605</v>
+        <v>429</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>562</v>
+        <v>75</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>606</v>
+        <v>380</v>
       </c>
       <c r="M27" s="7">
         <v>183</v>
@@ -8694,13 +8670,13 @@
         <v>153680</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8774,7 +8750,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8789,7 +8765,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8804,7 +8780,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8819,13 +8795,13 @@
         <v>2900524</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>512</v>
+        <v>599</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H30" s="7">
         <v>4849</v>
@@ -8834,13 +8810,13 @@
         <v>3464213</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="M30" s="7">
         <v>7762</v>
@@ -8849,13 +8825,13 @@
         <v>6364737</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8870,13 +8846,13 @@
         <v>57450</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>618</v>
+        <v>185</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="H31" s="7">
         <v>61</v>
@@ -8885,13 +8861,13 @@
         <v>41834</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>30</v>
+        <v>611</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>488</v>
+        <v>421</v>
       </c>
       <c r="M31" s="7">
         <v>114</v>
@@ -8900,13 +8876,13 @@
         <v>99284</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>444</v>
+        <v>534</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8921,13 +8897,13 @@
         <v>319134</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>498</v>
+        <v>331</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="H32" s="7">
         <v>313</v>
@@ -8936,13 +8912,13 @@
         <v>215311</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>100</v>
+        <v>616</v>
       </c>
       <c r="M32" s="7">
         <v>599</v>
@@ -8951,13 +8927,13 @@
         <v>534445</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>105</v>
+        <v>618</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
